--- a/WorkBot/main/backend/orders/OrderFiles/Ithaca Bakery/combined_order.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Ithaca Bakery/combined_order.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\orders\OrderFiles\Ithaca Bakery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851F567B-0BFE-43B0-A3AB-F517A6923968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B063E59D-0685-4D5D-BA66-E13F95FBE9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -412,9 +415,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -429,7 +439,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -437,12 +447,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,691 +849,696 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection sqref="A1:E121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="19" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>3</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="E17">
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="E18">
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="E18" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>5</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46">
+      <c r="B46" s="5">
+        <v>2</v>
+      </c>
+      <c r="C46" s="5">
         <v>3</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
+      <c r="B48" s="5">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="E51" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="E54">
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
+      <c r="E54" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B55">
-        <v>2</v>
-      </c>
-      <c r="D55">
+      <c r="B55" s="5">
+        <v>2</v>
+      </c>
+      <c r="D55" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="D56">
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="5">
         <v>3</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="5">
         <v>3</v>
       </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58">
+      <c r="C58" s="5">
+        <v>2</v>
+      </c>
+      <c r="D58" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="5">
         <v>3</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
+      <c r="C60" s="5">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B61">
-        <v>2</v>
-      </c>
-      <c r="D61">
+      <c r="B61" s="5">
+        <v>2</v>
+      </c>
+      <c r="D61" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
+      <c r="D62" s="5">
+        <v>1</v>
+      </c>
+      <c r="E62" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="5">
         <v>5</v>
       </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63">
+      <c r="C63" s="5">
+        <v>2</v>
+      </c>
+      <c r="D63" s="5">
+        <v>2</v>
+      </c>
+      <c r="E63" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="5">
         <v>5</v>
       </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
+      <c r="E64" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B65">
-        <v>2</v>
-      </c>
-      <c r="D65">
+      <c r="B65" s="5">
+        <v>2</v>
+      </c>
+      <c r="D65" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B68">
-        <v>2</v>
-      </c>
-      <c r="E68">
+      <c r="B68" s="5">
+        <v>2</v>
+      </c>
+      <c r="E68" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="5">
         <v>1</v>
       </c>
       <c r="G70">
@@ -1438,10 +1547,10 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="5">
         <v>1</v>
       </c>
       <c r="G71">
@@ -1450,10 +1559,10 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="5">
         <v>1</v>
       </c>
       <c r="G72">
@@ -1462,13 +1571,13 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C73">
-        <v>2</v>
-      </c>
-      <c r="E73">
+      <c r="C73" s="5">
+        <v>2</v>
+      </c>
+      <c r="E73" s="6">
         <v>1</v>
       </c>
       <c r="G73">
@@ -1477,16 +1586,16 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B74">
-        <v>2</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
+      <c r="B74" s="5">
+        <v>2</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1</v>
+      </c>
+      <c r="E74" s="6">
         <v>1</v>
       </c>
       <c r="G74">
@@ -1495,13 +1604,13 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="5">
         <v>6</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="5">
         <v>2</v>
       </c>
       <c r="G75">
@@ -1510,19 +1619,19 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="5">
         <v>3</v>
       </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
+      <c r="C76" s="5">
+        <v>1</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1</v>
+      </c>
+      <c r="E76" s="6">
         <v>1</v>
       </c>
       <c r="G76">
@@ -1530,10 +1639,10 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="5">
         <v>1</v>
       </c>
       <c r="G77">
@@ -1542,444 +1651,444 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="5">
         <v>4</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="5">
         <v>4</v>
       </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-      <c r="E81">
+      <c r="D81" s="5">
+        <v>2</v>
+      </c>
+      <c r="E81" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="E82">
+      <c r="B82" s="5">
+        <v>1</v>
+      </c>
+      <c r="E82" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="E83">
+      <c r="C83" s="5">
+        <v>1</v>
+      </c>
+      <c r="E83" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="5">
         <v>9</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="5">
         <v>3</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
+      <c r="C93" s="5">
+        <v>1</v>
+      </c>
+      <c r="D93" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="5">
         <v>4</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="5">
         <v>6</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="5">
         <v>4</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="5">
         <v>4</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="5">
         <v>3</v>
       </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="E109">
+      <c r="D109" s="5">
+        <v>1</v>
+      </c>
+      <c r="E109" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="5">
         <v>4</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="5">
         <v>4</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="5">
         <v>4</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-      <c r="E111">
+      <c r="C111" s="5">
+        <v>1</v>
+      </c>
+      <c r="D111" s="5">
+        <v>1</v>
+      </c>
+      <c r="E111" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
-      <c r="E113">
+      <c r="B113" s="5">
+        <v>1</v>
+      </c>
+      <c r="E113" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="E116">
+      <c r="C116" s="5">
+        <v>1</v>
+      </c>
+      <c r="E116" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="5">
         <v>0.25</v>
       </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-      <c r="E117">
+      <c r="D117" s="5">
+        <v>1</v>
+      </c>
+      <c r="E117" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B118">
-        <v>2</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118">
+      <c r="B118" s="5">
+        <v>2</v>
+      </c>
+      <c r="C118" s="5">
+        <v>1</v>
+      </c>
+      <c r="D118" s="5">
+        <v>1</v>
+      </c>
+      <c r="E118" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B119">
-        <v>2</v>
-      </c>
-      <c r="C119">
-        <v>2</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="E119">
+      <c r="B119" s="5">
+        <v>2</v>
+      </c>
+      <c r="C119" s="5">
+        <v>2</v>
+      </c>
+      <c r="D119" s="5">
+        <v>1</v>
+      </c>
+      <c r="E119" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="E121">
+      <c r="D121" s="5">
+        <v>1</v>
+      </c>
+      <c r="E121" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1987,6 +2096,8 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E121">
     <sortCondition ref="A2:A121"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="90" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>